--- a/7martSupermarket/src/main/resources/testdata.xlsx
+++ b/7martSupermarket/src/main/resources/testdata.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anexr\git\7rMartSuperMarket\7martSupermarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6A1D6E-CCE4-4C47-AC13-B69C07A017F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F4694-F987-4D22-9E21-5D0EFA8CC8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="2310" windowWidth="11340" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16860" yWindow="2310" windowWidth="11340" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
     <sheet name="CategoryPage" sheetId="3" r:id="rId3"/>
-    <sheet name="AddNewUserPage" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Bag</t>
-  </si>
-  <si>
     <t>Grinder</t>
   </si>
   <si>
@@ -91,6 +88,15 @@
   </si>
   <si>
     <t>Bottle</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -478,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4C9BBC-1842-45B9-BF0C-6934CA02FC29}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -510,18 +516,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -531,62 +537,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD72036-D4EC-4463-A3CF-1A451F51C52A}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4D673A-3B75-45A3-88E6-23D57ABCD9CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0806078-B3E0-4FDC-B50E-D92AE06D55E5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
